--- a/Math.xlsx
+++ b/Math.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HJ-Local\XT_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B7E7F2-726F-4BC4-9F8E-72036B628A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55F3AD9-71A4-41CD-A5C9-4DD5004E78BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="18000" windowHeight="10432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="573">
   <si>
     <t>Source File &amp; Question</t>
   </si>
@@ -947,16 +947,811 @@
   </si>
   <si>
     <t>Lucy received $180 from her parents as gifts for her birthday, which was 25% more than what she saved up herself. How much did Lucy save?</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Q1</t>
+  </si>
+  <si>
+    <t>Which of the following is seven hundred and three thousand and twelve in numerals?</t>
+  </si>
+  <si>
+    <t>730 012</t>
+  </si>
+  <si>
+    <t>703 012</t>
+  </si>
+  <si>
+    <t>73 012</t>
+  </si>
+  <si>
+    <t>70 312</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Q2</t>
+  </si>
+  <si>
+    <t>Divide 2 by 58​</t>
+  </si>
+  <si>
+    <t>165​</t>
+  </si>
+  <si>
+    <t>54​</t>
+  </si>
+  <si>
+    <t>141​</t>
+  </si>
+  <si>
+    <t>351​</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Q3</t>
+  </si>
+  <si>
+    <t>Round 4.195 to 2 decimal places.</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Q4</t>
+  </si>
+  <si>
+    <t>3+10030​+10003​ =</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Q5</t>
+  </si>
+  <si>
+    <t>The figure below is made up of 2 squares and one quarter circle. The lengths of the squares are 7 cm and 3 cm respectively. Find the perimeter of the shaded part. (Take π=722​)</t>
+  </si>
+  <si>
+    <t>19.5 cm</t>
+  </si>
+  <si>
+    <t>25 cm</t>
+  </si>
+  <si>
+    <t>25.5 cm</t>
+  </si>
+  <si>
+    <t>31 cm</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Q6</t>
+  </si>
+  <si>
+    <t>Find the volume of the solid.</t>
+  </si>
+  <si>
+    <t>228 cm3</t>
+  </si>
+  <si>
+    <t>288 cm3</t>
+  </si>
+  <si>
+    <t>300 cm3</t>
+  </si>
+  <si>
+    <t>372 cm3</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Q7</t>
+  </si>
+  <si>
+    <t>A sum of money was shared among Anne, Ben, Cindy and David. Anne had twice as much money as Ben. David had twice as much money as Cindy. Anne and David had the same amount of money. Which pie chart represents the information above?</t>
+  </si>
+  <si>
+    <t>Chart (1)</t>
+  </si>
+  <si>
+    <t>Chart (2)</t>
+  </si>
+  <si>
+    <t>Chart (3)</t>
+  </si>
+  <si>
+    <t>Chart (4)</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Q8</t>
+  </si>
+  <si>
+    <t>The average of three numbers is 40. The sum of another two numbers is 50. What is the average of the 5 numbers?</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Q9</t>
+  </si>
+  <si>
+    <t>The figure below is made up of four straight lines, ST, TU, XY and YZ. Students J, K and L wrote the following statements. J: ∠b=∠c, K: ∠d=∠e, L: ∠a+∠c=180∘. Which student(s) is/are correct?</t>
+  </si>
+  <si>
+    <t>J only</t>
+  </si>
+  <si>
+    <t>K only</t>
+  </si>
+  <si>
+    <t>J and L</t>
+  </si>
+  <si>
+    <t>K and L</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Q10</t>
+  </si>
+  <si>
+    <t>ABCD is a square and ∠AEB=86∘. Find ∠CBE.</t>
+  </si>
+  <si>
+    <t>41∘</t>
+  </si>
+  <si>
+    <t>43∘</t>
+  </si>
+  <si>
+    <t>45∘</t>
+  </si>
+  <si>
+    <t>49∘</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Q11</t>
+  </si>
+  <si>
+    <t>In a marathon relay race, four runners ran one after another without any stop in between. The second runner started running at the same time the first runner completed running and so on. The chart below shows the time each runner started running. The last runner completed the race at 1.30 p.m.. How much more time did the slowest runner take than the fastest runner?</t>
+  </si>
+  <si>
+    <t>15 min</t>
+  </si>
+  <si>
+    <t>20 min</t>
+  </si>
+  <si>
+    <t>35 min</t>
+  </si>
+  <si>
+    <t>55 min</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Q12</t>
+  </si>
+  <si>
+    <t>In the figure below, ABC is an equilateral triangle and DEF is an isosceles triangle. DE=EF. Find ∠DEF.</t>
+  </si>
+  <si>
+    <t>102∘</t>
+  </si>
+  <si>
+    <t>120∘</t>
+  </si>
+  <si>
+    <t>138∘</t>
+  </si>
+  <si>
+    <t>141∘</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Q13</t>
+  </si>
+  <si>
+    <t>The figure below shows a cuboid made up of 16 identical small cubes. All the faces of this cuboid including the base are painted green. This cuboid was then cut into 2 big identical cubes, each made up of 8 small cubes. Find the total area of the unpainted faces of these 2 big cubes.</t>
+  </si>
+  <si>
+    <t>36 cm2</t>
+  </si>
+  <si>
+    <t>72 cm2</t>
+  </si>
+  <si>
+    <t>144 cm2</t>
+  </si>
+  <si>
+    <t>216 cm2</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Q14</t>
+  </si>
+  <si>
+    <t>Aaron had $55 more than Shanti at first. After Aaron used 52​ of his money and Shanti used 31​ of her money, Aaron had $27 more than Shanti. How much did Shanti have left at the end?</t>
+  </si>
+  <si>
+    <t>$27</t>
+  </si>
+  <si>
+    <t>$30</t>
+  </si>
+  <si>
+    <t>$54</t>
+  </si>
+  <si>
+    <t>$60</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Q15</t>
+  </si>
+  <si>
+    <t>A sum of money was shared between John and Ken in the ratio 3: 4. John used all his money to buy 8 identical toy cars that cost $1.50 each. Ken used some of his money to buy 3 such toy cars. How much money had Ken left?</t>
+  </si>
+  <si>
+    <t>$4.50</t>
+  </si>
+  <si>
+    <t>$11.50</t>
+  </si>
+  <si>
+    <t>$12</t>
+  </si>
+  <si>
+    <t>$16</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Q16</t>
+  </si>
+  <si>
+    <t>Find the value of 20−(4+8÷4)+5</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Q17</t>
+  </si>
+  <si>
+    <t>Find the value of 68.2÷4</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Q18</t>
+  </si>
+  <si>
+    <t>May's clock at home slows down 1 minute after every 6 hour since the battery runs low from 12 midnight. It is now showing 6.00 p.m.. What should be the correct time now? Leave your answer in 24-hour clock.</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Q19</t>
+  </si>
+  <si>
+    <t>What is the area of the shaded triangle?</t>
+  </si>
+  <si>
+    <t>30 cm2</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Q20</t>
+  </si>
+  <si>
+    <t>The amount of water in a beaker at first is shown as below. After Zoe poured in 50 ml of water into the beaker, what is the total amount of water in the beaker now?</t>
+  </si>
+  <si>
+    <t>230 ml</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Q21</t>
+  </si>
+  <si>
+    <t>In the figure below, ADE is a right-angled isosceles triangle and BE is a straight line. AE=DE and ∠ACB=84∘. Find ∠ABC.</t>
+  </si>
+  <si>
+    <t>51∘</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Q22</t>
+  </si>
+  <si>
+    <t>A baker had three boxes of flour weighing 2.7 kg, 3.4 kg and 5.02 kg. He repacked them equally into four bags. What is the mass of each bag?</t>
+  </si>
+  <si>
+    <t>2780 g</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Q23</t>
+  </si>
+  <si>
+    <t>Mark spent $4.20 on 5 erasers and 1 pen. The price per eraser is b cents and the price per pen is 2b cents. Find the value of b.</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Q24</t>
+  </si>
+  <si>
+    <t>The figure below shows the net of a cube. The numbers 1 to 6 are on the faces. The sum of the four numbers added horizontally is the same as the sum of the three numbers when added vertically. '3' is on the bottom of the cube. What are the two possible numbers on the top of the cube?</t>
+  </si>
+  <si>
+    <t>6 and 2</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Q25</t>
+  </si>
+  <si>
+    <t>Mrs Goh had 25 apples and some pears at first. She gave away some apples and 41​ of the remaining fruits were pears. After buying 8 mangoes, 61​ of the total number of fruits were pears. How many apples did Mrs Goh give away?</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Q26</t>
+  </si>
+  <si>
+    <t>Two empty tanks with bases measuring 40 cm by 25 cm and 30 cm by 20 cm are shown below. Both tanks are filled with a total of 8 litres of water to the same height. What is the height of the water level in both tanks?</t>
+  </si>
+  <si>
+    <t>5 cm</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Q27</t>
+  </si>
+  <si>
+    <t>According to the survey, 80 students did not have any digital devices. What fraction of the total number had only 1 digital device? Give your answer in the simplest form.</t>
+  </si>
+  <si>
+    <t>209​</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Q28</t>
+  </si>
+  <si>
+    <t>How many students had more than 1 devices?</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Q29</t>
+  </si>
+  <si>
+    <t>Peter spent $60 of his weekly allowance and saved the rest. During Christmas, his spending increased by 20%. As a result, his savings decreased by 10%. How much was his weekly allowance?</t>
+  </si>
+  <si>
+    <t>$180</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Q30</t>
+  </si>
+  <si>
+    <t>In the figure below, ABGH is a parallelogram, CFGH is a rhombus and DEGH is a trapezium. ∠EDH=132∘ and ∠CHD=20∘ Find ∠BAH.</t>
+  </si>
+  <si>
+    <t>56∘</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Paper 2, Q1</t>
+  </si>
+  <si>
+    <t>Which column can the number 100 be found in the table below?</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Paper 2, Q2</t>
+  </si>
+  <si>
+    <t>A 2-m wide path was built around a square garden ABCD as shown below. The area of the shaded path is 56 m2. What is the area of the square garden ABCD?</t>
+  </si>
+  <si>
+    <t>25 m2</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Paper 2, Q3</t>
+  </si>
+  <si>
+    <t>Ahmad bought some books which cost an average of $26. Two of the books cost $46 and $34 respectively. The average cost of the remaining books was $22. Each of the statements below is either true, false or not possible to tell from the information given. Statement: Ahmad bought more than 10 books.</t>
+  </si>
+  <si>
+    <t>Ahmad bought some books which cost an average of $26. Two of the books cost $46 and $34 respectively. The average cost of the remaining books was $22. Each of the statements below is either true, false or not possible to tell from the information given. Statement: Two of the books cost an average of $24.</t>
+  </si>
+  <si>
+    <t>Not possible to tell</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Paper 2, Q4</t>
+  </si>
+  <si>
+    <t>In the figure below, ABC and ABE are identical isosceles triangles. AF is parallel to BE, AB=AE=BC, ∠BCA=36∘ and ∠AEF=85∘. Find ∠AFE.</t>
+  </si>
+  <si>
+    <t>59∘</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Paper 2, Q5</t>
+  </si>
+  <si>
+    <t>May had some chocolates and lollipops in the ratio of 3: 4 at first. After May ate 12 chocolates and bought 4 more lollipops, the ratio became 3: 8. What was the total number of chocolates and lollipops May had in the end?</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Paper 2, Q6</t>
+  </si>
+  <si>
+    <t>Julie had 5 times as many coins as Gavin at first. She gave 41​ of her coins to Gavin. Then Gavin used 31​ of his total coins. In the end, Julie had 189 coins more than Gavin. How many coins did Julie and Gavin had at first?</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Paper 2, Q7a</t>
+  </si>
+  <si>
+    <t>What is the total number of potted plants in the housing estate? [Bar chart shown]</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Paper 2, Q7b</t>
+  </si>
+  <si>
+    <t>What is the ratio of the number of families with 3 or less potted plants to the number of families with more than 3 potted plants? Give your answer in the simplest form.</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Paper 2, Q8</t>
+  </si>
+  <si>
+    <t>In the figure below, ABE is an equilateral triangle and ADF is a right-angled triangle. ∠ADF=20∘ and ∠BAF=98∘ Find ∠DCE.</t>
+  </si>
+  <si>
+    <t>92∘</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Paper 2, Q9</t>
+  </si>
+  <si>
+    <t>Sean left City A for City B travelling at a constant speed of 80 km/h. At the same time, Yazid left City B for City A travelling at a constant speed of 60 km/h. Sean and Yazid passed each other at 30 km from the midpoint. What is the distance between City A and City B?</t>
+  </si>
+  <si>
+    <t>420 km</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Paper 2, Q10a</t>
+  </si>
+  <si>
+    <t>Mdm Siti bought 4p kg of beef at $7 per kg and 6p kg of chicken at $8 per kg for Hari Raya. Express the total amount she spent in terms of p.</t>
+  </si>
+  <si>
+    <t>76p dollars</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Paper 2, Q10b</t>
+  </si>
+  <si>
+    <t>If p=2, find the total amount spent.</t>
+  </si>
+  <si>
+    <t>$152</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Paper 2, Q11a</t>
+  </si>
+  <si>
+    <t>The pie chart below represents the number of cars, motorcycles and trucks in a car park. The ratio of the number of trucks to the number of motorcycles is 5:7. There are 48 cars in the car park. How many trucks are there in the car park?</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Paper 2, Q11b</t>
+  </si>
+  <si>
+    <t>The cars and trucks have 4 wheels each while the motorcycles have 2 wheels each. Find the total number of wheels represented in the pie chart.</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Paper 2, Q12</t>
+  </si>
+  <si>
+    <t>At first, Sam had 52​ as much money as Paul. Ean had $36 more than Sam. After Paul gave $98 to Sam and some money to Ean, all three boys had the same amount of money. How much did they have altogether?</t>
+  </si>
+  <si>
+    <t>$810</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Paper 2, Q13a</t>
+  </si>
+  <si>
+    <t>The figure below is made up of a big quarter circle, two small identical quarter circles and a square. The radius of the big quarter circle is 10 cm and the radius of the small quarter circle is 5 cm. Find the area of the square.</t>
+  </si>
+  <si>
+    <t>12.5 cm2</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Paper 2, Q13b</t>
+  </si>
+  <si>
+    <t>Find the total area of the shaded parts. (Take π=3.14)</t>
+  </si>
+  <si>
+    <t>53.5 cm2</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Paper 2, Q14a</t>
+  </si>
+  <si>
+    <t>A rectangular tank, 50 cm by 25 cm by 30 cm is separated into two compartments P and Q by a plastic panel as shown below. What is the height of the water in the tank when the plastic panel is removed?</t>
+  </si>
+  <si>
+    <t>8 cm</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Paper 2, Q14b</t>
+  </si>
+  <si>
+    <t>How many more litres of water are needed to fill the tank to the brim after the plastic panel is removed?</t>
+  </si>
+  <si>
+    <t>27.5 litres</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Paper 2, Q15a</t>
+  </si>
+  <si>
+    <t>Machine A and Machine B had the same mass of biscuits to be packed into identical boxes. The machines started packing at 2 p.m.. The table shows the number of boxes packed by each machine and the remaining mass of biscuits after 15 minutes. What was the mass of biscuits in each box? Give your answer in kilograms.</t>
+  </si>
+  <si>
+    <t>0.16 kg</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Paper 2, Q15b</t>
+  </si>
+  <si>
+    <t>At 2.15 p.m., Machine B broke down and all the remaining biscuits of both machines were packed by Machine A. After packing the maximum boxes possible, how many grams of biscuits were left at the end?</t>
+  </si>
+  <si>
+    <t>120 g</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Paper 2, Q16a</t>
+  </si>
+  <si>
+    <t>In the figure below, ACKL is a parallelogram, ACGH is a rectangle and ADE is an isosceles triangle. KIFE is a straight line. AD=AE, ∠ADE=75∘, ∠EBK=102∘ and ∠CFK=93∘. Find ∠LAJ.</t>
+  </si>
+  <si>
+    <t>42∘</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Paper 2, Q16b</t>
+  </si>
+  <si>
+    <t>Find ∠JKI.</t>
+  </si>
+  <si>
+    <t>P6_Maths_2024_SA2_acsprimary.pdf, Paper 2, Q17</t>
+  </si>
+  <si>
+    <t>Andy and Betty had 864 stamps altogether. Andy gave Betty some of his stamps and Betty's stamps increased by 60%. In return, Betty gave Andy some of her stamps and Andy's stamps increased by 30%. Then, Andy gave some of his stamps to Betty and Betty's stamps increased by 80%. In the end, each of them had an equal number of stamps. Find the percentage increase in the number of Betty's stamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The diagram shows 3 triangles, 4 squares, and 4 circles. What is the ratio of the total number of shapes to the number of squares? </t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>15 and 4/5 kg of flour was packed into bags of 5/8 kg each. What was the maximum number of bags of flour?</t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>(From Q2a) How much flour was left unpacked?</t>
+  </si>
+  <si>
+    <t>0.175 kg</t>
+  </si>
+  <si>
+    <t>0.200 kg</t>
+  </si>
+  <si>
+    <t>0.125 kg</t>
+  </si>
+  <si>
+    <t>0.500 kg</t>
+  </si>
+  <si>
+    <t>The ratio of the length of stick A to the length of stick B is 9:8. The difference in length is 1.2 cm (derived from diagram: 2.9cm - 1.7cm). Find the length of stick A.</t>
+  </si>
+  <si>
+    <t>10.8 cm</t>
+  </si>
+  <si>
+    <t>9.6 cm</t>
+  </si>
+  <si>
+    <t>12.0 cm</t>
+  </si>
+  <si>
+    <t>8.4 cm</t>
+  </si>
+  <si>
+    <t>EAD is a triangle and BCDE is a parallelogram. AB = BE. Angle C is 73 degrees. Find Angle EAB.</t>
+  </si>
+  <si>
+    <t>53.5°</t>
+  </si>
+  <si>
+    <t>39.0°</t>
+  </si>
+  <si>
+    <t>73.0°</t>
+  </si>
+  <si>
+    <t>36.5°</t>
+  </si>
+  <si>
+    <t>7a</t>
+  </si>
+  <si>
+    <t>Mr Kong drove at an average speed of 76 km/h from City A to City B which was 209 km away. What was the duration of the journey?</t>
+  </si>
+  <si>
+    <t>2 h 45 min</t>
+  </si>
+  <si>
+    <t>2 h 30 min</t>
+  </si>
+  <si>
+    <t>2 h 55 min</t>
+  </si>
+  <si>
+    <t>3 h 15 min</t>
+  </si>
+  <si>
+    <t>7b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From City B, he drove for another 2 h 36 min to City C (153.4 km away). What was the average speed from City B to City C? </t>
+  </si>
+  <si>
+    <t>59 km/h</t>
+  </si>
+  <si>
+    <t>60 km/h</t>
+  </si>
+  <si>
+    <t>55 km/h</t>
+  </si>
+  <si>
+    <t>65 km/h</t>
+  </si>
+  <si>
+    <t>8a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike had 130 cm of string. He made a figure with sides: 2p, p, p+6, and 3p-4. How much string did he use in terms of p? </t>
+  </si>
+  <si>
+    <t>7p + 2</t>
+  </si>
+  <si>
+    <t>6p + 2</t>
+  </si>
+  <si>
+    <t>7p - 2</t>
+  </si>
+  <si>
+    <t>8p</t>
+  </si>
+  <si>
+    <t>8b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(From Q8a) After making the figure, Mike had p cm of wire left. What was the value of p? </t>
+  </si>
+  <si>
+    <t>Elsie spent 2/5 of her money + $50 on a dress. She spent 3/5 of the remainder + $86 on a bag. She spent half of the rest on food ($25). How much did she have at first?</t>
+  </si>
+  <si>
+    <t>11a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abby, Britney, and Claudia scored an average of 68.5. Elaine joined and the average of the four became 70. How many points did Elaine score? </t>
+  </si>
+  <si>
+    <t>11b</t>
+  </si>
+  <si>
+    <t>(From Q11a) What percentage of the total score did Elaine score? (Round to nearest whole number)</t>
+  </si>
+  <si>
+    <t>12a</t>
+  </si>
+  <si>
+    <t>Refer to the Water Tank Line Graph. During which one-hour interval was there no water flowing into the tank?</t>
+  </si>
+  <si>
+    <t>15:00 to 16:00</t>
+  </si>
+  <si>
+    <t>14:00 to 15:00</t>
+  </si>
+  <si>
+    <t>16:00 to 17:00</t>
+  </si>
+  <si>
+    <t>12:00 to 13:00</t>
+  </si>
+  <si>
+    <t>12b</t>
+  </si>
+  <si>
+    <t>(From Q12a) How much water flowed into the tank between 13:00 and 14:00?</t>
+  </si>
+  <si>
+    <t>16 litres</t>
+  </si>
+  <si>
+    <t>20 litres</t>
+  </si>
+  <si>
+    <t>10 litres</t>
+  </si>
+  <si>
+    <t>15 litres</t>
+  </si>
+  <si>
+    <t>12c</t>
+  </si>
+  <si>
+    <t>(From Q12a) What was the average volume of water collected per hour over the 5 hour period?</t>
+  </si>
+  <si>
+    <t>16 litres/h</t>
+  </si>
+  <si>
+    <t>20 litres/h</t>
+  </si>
+  <si>
+    <t>15 litres/h</t>
+  </si>
+  <si>
+    <t>18 litres/h</t>
+  </si>
+  <si>
+    <t>9 identical rectangles form a large rectangle ABCD. The perimeter of ABCD is 138 cm. Find the area of ABCD.</t>
+  </si>
+  <si>
+    <t>1134 cm²</t>
+  </si>
+  <si>
+    <t>1200 cm²</t>
+  </si>
+  <si>
+    <t>1050 cm²</t>
+  </si>
+  <si>
+    <t>1100 cm²</t>
+  </si>
+  <si>
+    <t>14a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dawn bought ribbons from A (2/5), B (1/5), C and D (equal amounts). What fraction was bought from Shop C? </t>
+  </si>
+  <si>
+    <t>14b</t>
+  </si>
+  <si>
+    <t>(From Q14a) Dawn bought 133 ribbons from Shop D. What was the total number of ribbons she bought?</t>
+  </si>
+  <si>
+    <t>15a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ronald bought 38 boxes of wings (Small: $6.30, Big: $9.75). He paid $287.85 after a discount of $4 for every $50 spent. What was the total cost before discount? </t>
+  </si>
+  <si>
+    <t>15b</t>
+  </si>
+  <si>
+    <t>(From Q15a) How many small boxes of chicken wings did Ronald buy?</t>
+  </si>
+  <si>
+    <t>16a</t>
+  </si>
+  <si>
+    <t>Ratio of boys to girls is 10:7. Entrance fee is $12. Total collected is $4692. How many boys were there?</t>
+  </si>
+  <si>
+    <t>16b</t>
+  </si>
+  <si>
+    <t>(From Q16a) Ratio of Males (Boys+Men) to Females (Girls+Women) is 8:5. There are 54 more Men than Women. How many Women were there?</t>
+  </si>
+  <si>
+    <t>17b</t>
+  </si>
+  <si>
+    <t>Pattern Question. Total circles = 3(n+1). Grey circles = floor(n/2) + 2. What is the total number of circles in Figure 425?</t>
+  </si>
+  <si>
+    <t>17c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(From Q17b) In Figure 425, what percentage of the circles are white? (Round to 1 decimal place) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  <numFmts count="4">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="hh:mm"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -968,6 +1763,18 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1002,18 +1809,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{0216A40A-3E43-4DCE-B204-FAE75381E97D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1313,10 +2132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L162"/>
+  <dimension ref="A1:L241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="P110" sqref="P110"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="L169" sqref="L169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2760,14 +3579,1600 @@
         <v>306</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B161" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B162" t="s">
         <v>308</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A163" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A164" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H164" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A165" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C165" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D165" s="4">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E165" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="F165" s="4">
+        <v>4.29</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H165" s="4">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A166" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C166" s="4">
+        <v>3.0329999999999999</v>
+      </c>
+      <c r="D166" s="4">
+        <v>3.06</v>
+      </c>
+      <c r="E166" s="4">
+        <v>3.33</v>
+      </c>
+      <c r="F166" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H166" s="4">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A167" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H167" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A168" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H168" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A169" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A170" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C170" s="4">
+        <v>13</v>
+      </c>
+      <c r="D170" s="4">
+        <v>18</v>
+      </c>
+      <c r="E170" s="4">
+        <v>34</v>
+      </c>
+      <c r="F170" s="4">
+        <v>65</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H170" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A171" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A172" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A173" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A174" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A175" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A176" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H176" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A177" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A178" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A179" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
+      <c r="H179" s="4">
+        <v>17.05</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A180" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="4">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A181" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A182" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="3"/>
+      <c r="H182" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A183" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="3"/>
+      <c r="H183" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A184" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A185" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A186" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A187" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
+      <c r="F187" s="3"/>
+      <c r="G187" s="3"/>
+      <c r="H187" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A188" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A189" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A190" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A191" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
+      <c r="H191" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A192" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A193" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A194" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A195" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H195" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A196" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="H196" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A197" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A198" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C198" s="3"/>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3"/>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A199" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="4">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A200" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A201" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C201" s="3"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="3"/>
+      <c r="H201" s="5">
+        <v>0.2986111111111111</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A202" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A203" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="3"/>
+      <c r="H203" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A204" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A205" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A206" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A207" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A208" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A209" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A210" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
+      <c r="F210" s="3"/>
+      <c r="G210" s="3"/>
+      <c r="H210" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A211" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
+      <c r="F211" s="3"/>
+      <c r="G211" s="3"/>
+      <c r="H211" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A212" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3"/>
+      <c r="E212" s="3"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="3"/>
+      <c r="H212" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A213" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3"/>
+      <c r="F213" s="3"/>
+      <c r="G213" s="3"/>
+      <c r="H213" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A214" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3"/>
+      <c r="F214" s="3"/>
+      <c r="G214" s="3"/>
+      <c r="H214" s="4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A215" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C215" s="3"/>
+      <c r="D215" s="3"/>
+      <c r="E215" s="3"/>
+      <c r="F215" s="3"/>
+      <c r="G215" s="3"/>
+      <c r="H215" s="4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A216" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="3"/>
+      <c r="G216" s="3"/>
+      <c r="H216" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A217" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="3"/>
+      <c r="G217" s="3"/>
+      <c r="H217" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A218">
+        <v>1</v>
+      </c>
+      <c r="B218" t="s">
+        <v>490</v>
+      </c>
+      <c r="C218" s="7">
+        <v>0.46111111111111114</v>
+      </c>
+      <c r="D218" s="7">
+        <v>0.17430555555555555</v>
+      </c>
+      <c r="E218" s="7">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="F218" s="7">
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="G218" s="7">
+        <v>0.46111111111111114</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A219" t="s">
+        <v>491</v>
+      </c>
+      <c r="B219" t="s">
+        <v>492</v>
+      </c>
+      <c r="C219">
+        <v>25</v>
+      </c>
+      <c r="D219">
+        <v>24</v>
+      </c>
+      <c r="E219">
+        <v>26</v>
+      </c>
+      <c r="F219">
+        <v>15</v>
+      </c>
+      <c r="G219">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A220" t="s">
+        <v>493</v>
+      </c>
+      <c r="B220" t="s">
+        <v>494</v>
+      </c>
+      <c r="C220" t="s">
+        <v>495</v>
+      </c>
+      <c r="D220" t="s">
+        <v>496</v>
+      </c>
+      <c r="E220" t="s">
+        <v>497</v>
+      </c>
+      <c r="F220" t="s">
+        <v>498</v>
+      </c>
+      <c r="G220" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A221">
+        <v>5</v>
+      </c>
+      <c r="B221" t="s">
+        <v>499</v>
+      </c>
+      <c r="C221" t="s">
+        <v>500</v>
+      </c>
+      <c r="D221" t="s">
+        <v>501</v>
+      </c>
+      <c r="E221" t="s">
+        <v>502</v>
+      </c>
+      <c r="F221" t="s">
+        <v>503</v>
+      </c>
+      <c r="G221" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A222">
+        <v>6</v>
+      </c>
+      <c r="B222" t="s">
+        <v>504</v>
+      </c>
+      <c r="C222" t="s">
+        <v>505</v>
+      </c>
+      <c r="D222" t="s">
+        <v>506</v>
+      </c>
+      <c r="E222" t="s">
+        <v>507</v>
+      </c>
+      <c r="F222" t="s">
+        <v>508</v>
+      </c>
+      <c r="G222" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A223" t="s">
+        <v>509</v>
+      </c>
+      <c r="B223" t="s">
+        <v>510</v>
+      </c>
+      <c r="C223" t="s">
+        <v>511</v>
+      </c>
+      <c r="D223" t="s">
+        <v>512</v>
+      </c>
+      <c r="E223" t="s">
+        <v>513</v>
+      </c>
+      <c r="F223" t="s">
+        <v>514</v>
+      </c>
+      <c r="G223" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A224" t="s">
+        <v>515</v>
+      </c>
+      <c r="B224" t="s">
+        <v>516</v>
+      </c>
+      <c r="C224" t="s">
+        <v>517</v>
+      </c>
+      <c r="D224" t="s">
+        <v>518</v>
+      </c>
+      <c r="E224" t="s">
+        <v>519</v>
+      </c>
+      <c r="F224" t="s">
+        <v>520</v>
+      </c>
+      <c r="G224" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A225" t="s">
+        <v>521</v>
+      </c>
+      <c r="B225" t="s">
+        <v>522</v>
+      </c>
+      <c r="C225" t="s">
+        <v>523</v>
+      </c>
+      <c r="D225" t="s">
+        <v>524</v>
+      </c>
+      <c r="E225" t="s">
+        <v>525</v>
+      </c>
+      <c r="F225" t="s">
+        <v>526</v>
+      </c>
+      <c r="G225" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A226" t="s">
+        <v>527</v>
+      </c>
+      <c r="B226" t="s">
+        <v>528</v>
+      </c>
+      <c r="C226">
+        <v>16</v>
+      </c>
+      <c r="D226">
+        <v>14</v>
+      </c>
+      <c r="E226">
+        <v>18</v>
+      </c>
+      <c r="F226">
+        <v>12</v>
+      </c>
+      <c r="G226">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A227">
+        <v>10</v>
+      </c>
+      <c r="B227" t="s">
+        <v>529</v>
+      </c>
+      <c r="C227" s="8">
+        <v>650</v>
+      </c>
+      <c r="D227" s="8">
+        <v>600</v>
+      </c>
+      <c r="E227" s="8">
+        <v>550</v>
+      </c>
+      <c r="F227" s="8">
+        <v>700</v>
+      </c>
+      <c r="G227" s="8">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A228" t="s">
+        <v>530</v>
+      </c>
+      <c r="B228" t="s">
+        <v>531</v>
+      </c>
+      <c r="C228">
+        <v>74.5</v>
+      </c>
+      <c r="D228">
+        <v>75</v>
+      </c>
+      <c r="E228">
+        <v>70</v>
+      </c>
+      <c r="F228">
+        <v>72.5</v>
+      </c>
+      <c r="G228">
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A229" t="s">
+        <v>532</v>
+      </c>
+      <c r="B229" t="s">
+        <v>533</v>
+      </c>
+      <c r="C229" s="9">
+        <v>0.27</v>
+      </c>
+      <c r="D229" s="9">
+        <v>0.26</v>
+      </c>
+      <c r="E229" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="F229" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G229" s="9">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A230" t="s">
+        <v>534</v>
+      </c>
+      <c r="B230" t="s">
+        <v>535</v>
+      </c>
+      <c r="C230" t="s">
+        <v>536</v>
+      </c>
+      <c r="D230" t="s">
+        <v>537</v>
+      </c>
+      <c r="E230" t="s">
+        <v>538</v>
+      </c>
+      <c r="F230" t="s">
+        <v>539</v>
+      </c>
+      <c r="G230" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A231" t="s">
+        <v>540</v>
+      </c>
+      <c r="B231" t="s">
+        <v>541</v>
+      </c>
+      <c r="C231" t="s">
+        <v>542</v>
+      </c>
+      <c r="D231" t="s">
+        <v>543</v>
+      </c>
+      <c r="E231" t="s">
+        <v>544</v>
+      </c>
+      <c r="F231" t="s">
+        <v>545</v>
+      </c>
+      <c r="G231" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A232" t="s">
+        <v>546</v>
+      </c>
+      <c r="B232" t="s">
+        <v>547</v>
+      </c>
+      <c r="C232" t="s">
+        <v>548</v>
+      </c>
+      <c r="D232" t="s">
+        <v>549</v>
+      </c>
+      <c r="E232" t="s">
+        <v>550</v>
+      </c>
+      <c r="F232" t="s">
+        <v>551</v>
+      </c>
+      <c r="G232" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A233">
+        <v>13</v>
+      </c>
+      <c r="B233" t="s">
+        <v>552</v>
+      </c>
+      <c r="C233" t="s">
+        <v>553</v>
+      </c>
+      <c r="D233" t="s">
+        <v>554</v>
+      </c>
+      <c r="E233" t="s">
+        <v>555</v>
+      </c>
+      <c r="F233" t="s">
+        <v>556</v>
+      </c>
+      <c r="G233" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A234" t="s">
+        <v>557</v>
+      </c>
+      <c r="B234" t="s">
+        <v>558</v>
+      </c>
+      <c r="C234" s="10">
+        <v>45778</v>
+      </c>
+      <c r="D234" s="10">
+        <v>45748</v>
+      </c>
+      <c r="E234" s="10">
+        <v>45689</v>
+      </c>
+      <c r="F234" s="10">
+        <v>45931</v>
+      </c>
+      <c r="G234" s="10">
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A235" t="s">
+        <v>559</v>
+      </c>
+      <c r="B235" t="s">
+        <v>560</v>
+      </c>
+      <c r="C235">
+        <v>665</v>
+      </c>
+      <c r="D235">
+        <v>600</v>
+      </c>
+      <c r="E235">
+        <v>500</v>
+      </c>
+      <c r="F235">
+        <v>700</v>
+      </c>
+      <c r="G235">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A236" t="s">
+        <v>561</v>
+      </c>
+      <c r="B236" t="s">
+        <v>562</v>
+      </c>
+      <c r="C236" s="11">
+        <v>311.85000000000002</v>
+      </c>
+      <c r="D236" s="11">
+        <v>320</v>
+      </c>
+      <c r="E236" s="11">
+        <v>305.5</v>
+      </c>
+      <c r="F236" s="11">
+        <v>315</v>
+      </c>
+      <c r="G236" s="11">
+        <v>311.85000000000002</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A237" t="s">
+        <v>563</v>
+      </c>
+      <c r="B237" t="s">
+        <v>564</v>
+      </c>
+      <c r="C237">
+        <v>17</v>
+      </c>
+      <c r="D237">
+        <v>21</v>
+      </c>
+      <c r="E237">
+        <v>15</v>
+      </c>
+      <c r="F237">
+        <v>20</v>
+      </c>
+      <c r="G237">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A238" t="s">
+        <v>565</v>
+      </c>
+      <c r="B238" t="s">
+        <v>566</v>
+      </c>
+      <c r="C238">
+        <v>230</v>
+      </c>
+      <c r="D238">
+        <v>161</v>
+      </c>
+      <c r="E238">
+        <v>200</v>
+      </c>
+      <c r="F238">
+        <v>250</v>
+      </c>
+      <c r="G238">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A239" t="s">
+        <v>567</v>
+      </c>
+      <c r="B239" t="s">
+        <v>568</v>
+      </c>
+      <c r="C239">
+        <v>44</v>
+      </c>
+      <c r="D239">
+        <v>98</v>
+      </c>
+      <c r="E239">
+        <v>54</v>
+      </c>
+      <c r="F239">
+        <v>60</v>
+      </c>
+      <c r="G239">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A240" t="s">
+        <v>569</v>
+      </c>
+      <c r="B240" t="s">
+        <v>570</v>
+      </c>
+      <c r="C240">
+        <v>1278</v>
+      </c>
+      <c r="D240">
+        <v>1280</v>
+      </c>
+      <c r="E240">
+        <v>1275</v>
+      </c>
+      <c r="F240">
+        <v>1290</v>
+      </c>
+      <c r="G240">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A241" t="s">
+        <v>571</v>
+      </c>
+      <c r="B241" t="s">
+        <v>572</v>
+      </c>
+      <c r="C241" s="12">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="D241" s="12">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E241" s="12">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="F241" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="G241" s="12">
+        <v>0.83299999999999996</v>
       </c>
     </row>
   </sheetData>
